--- a/data/142/STANOR/03777 Persons in the labour force.xlsx
+++ b/data/142/STANOR/03777 Persons in the labour force.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <x:si>
     <x:t>03777: Persons in the labour force (LFS), by quarter, contents, age and sex</x:t>
   </x:si>
@@ -625,22 +625,25 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>There was a change in the LFS from January 2006, where the age limit was lowered from 16 to 15 years. In order to compare the figures for 2006 with the previous years, figures for 2006 have also been published based on the old method.</x:t>
   </x:si>
   <x:si>
     <x:t>From 2018, a new estimation method has been applied, the figures have been revised back to 2006. For more information, see separate &lt;a href='https://www.ssb.no/arbeid-og-lonn/artikler-og-publikasjoner/new-estimation-methodology-for-the-norwegian-labour-force-survey'&gt; article &lt;/a&gt;.</x:t>
   </x:si>
   <x:si>
-    <x:t>A major restructuring of the LFS was carried out from January 2021. With the reorganization, changes have been made to the sample that is included in the survey, and the question sequences, question formulations and answer alternatives have been modernized and adapted to self-completion as a future collection method. See About the statistics for more information about the changes that have been made.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>A major restructuring of the LFS was carried out from January 2021. With the reorganization, changes have been made to the sample that is included in the survey, and the question sequences, question formulations and answer alternatives have been modernized and adapted to self-completion as a future collection method. Thue use of proxy interviewing ceased in 2021. This change seem to have given a break in some variables among young people. See About the statistics for more information.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Persons in the labour force (1 000 persons):</x:t>
   </x:si>
   <x:si>
-    <x:t>20211028 08:00</x:t>
+    <x:t>20220127 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1102,1794 +1105,2406 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B255"/>
+  <x:dimension ref="A1:C256"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="39.070625" style="0" customWidth="1"/>
+    <x:col min="1" max="3" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="B3" s="2" t="s">
+    <x:row r="3" spans="1:3">
+      <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="B4" s="2" t="s">
+    <x:row r="4" spans="1:3">
+      <x:c r="C4" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="B5" s="2" t="s">
+    <x:row r="5" spans="1:3">
+      <x:c r="C5" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:2">
+    <x:row r="6" spans="1:3">
       <x:c r="A6" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B6" s="3" t="n">
+      <x:c r="B6" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="n">
         <x:v>1664</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:2">
+    <x:row r="7" spans="1:3">
       <x:c r="A7" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B7" s="3" t="n">
+      <x:c r="B7" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="n">
         <x:v>1664</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:2">
+    <x:row r="8" spans="1:3">
       <x:c r="A8" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B8" s="3" t="n">
+      <x:c r="B8" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="n">
         <x:v>1664</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:2">
+    <x:row r="9" spans="1:3">
       <x:c r="A9" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B9" s="3" t="n">
+      <x:c r="B9" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="n">
         <x:v>1664</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:2">
+    <x:row r="10" spans="1:3">
       <x:c r="A10" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B10" s="3" t="n">
+      <x:c r="B10" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="n">
         <x:v>1667</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:2">
+    <x:row r="11" spans="1:3">
       <x:c r="A11" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B11" s="3" t="n">
+      <x:c r="B11" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="n">
         <x:v>1667</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:2">
+    <x:row r="12" spans="1:3">
       <x:c r="A12" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B12" s="3" t="n">
+      <x:c r="B12" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="n">
         <x:v>1667</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:2">
+    <x:row r="13" spans="1:3">
       <x:c r="A13" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B13" s="3" t="n">
+      <x:c r="B13" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="n">
         <x:v>1667</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:2">
+    <x:row r="14" spans="1:3">
       <x:c r="A14" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B14" s="3" t="n">
+      <x:c r="B14" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C14" s="3" t="n">
         <x:v>1666</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:2">
+    <x:row r="15" spans="1:3">
       <x:c r="A15" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B15" s="3" t="n">
+      <x:c r="B15" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C15" s="3" t="n">
         <x:v>1666</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:2">
+    <x:row r="16" spans="1:3">
       <x:c r="A16" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B16" s="3" t="n">
+      <x:c r="B16" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C16" s="3" t="n">
         <x:v>1666</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:2">
+    <x:row r="17" spans="1:3">
       <x:c r="A17" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B17" s="3" t="n">
+      <x:c r="B17" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C17" s="3" t="n">
         <x:v>1666</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:2">
+    <x:row r="18" spans="1:3">
       <x:c r="A18" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B18" s="3" t="n">
+      <x:c r="B18" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C18" s="3" t="n">
         <x:v>1704</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:2">
+    <x:row r="19" spans="1:3">
       <x:c r="A19" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B19" s="3" t="n">
+      <x:c r="B19" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C19" s="3" t="n">
         <x:v>1704</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:2">
+    <x:row r="20" spans="1:3">
       <x:c r="A20" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B20" s="3" t="n">
+      <x:c r="B20" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C20" s="3" t="n">
         <x:v>1704</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:2">
+    <x:row r="21" spans="1:3">
       <x:c r="A21" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B21" s="3" t="n">
+      <x:c r="B21" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C21" s="3" t="n">
         <x:v>1704</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:2">
+    <x:row r="22" spans="1:3">
       <x:c r="A22" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B22" s="3" t="n">
+      <x:c r="B22" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C22" s="3" t="n">
         <x:v>1784</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:2">
+    <x:row r="23" spans="1:3">
       <x:c r="A23" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B23" s="3" t="n">
+      <x:c r="B23" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C23" s="3" t="n">
         <x:v>1784</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:2">
+    <x:row r="24" spans="1:3">
       <x:c r="A24" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B24" s="3" t="n">
+      <x:c r="B24" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C24" s="3" t="n">
         <x:v>1784</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:2">
+    <x:row r="25" spans="1:3">
       <x:c r="A25" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B25" s="3" t="n">
+      <x:c r="B25" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C25" s="3" t="n">
         <x:v>1784</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:2">
+    <x:row r="26" spans="1:3">
       <x:c r="A26" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B26" s="3" t="n">
+      <x:c r="B26" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C26" s="3" t="n">
         <x:v>1826</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:2">
+    <x:row r="27" spans="1:3">
       <x:c r="A27" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B27" s="3" t="n">
+      <x:c r="B27" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C27" s="3" t="n">
         <x:v>1826</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:2">
+    <x:row r="28" spans="1:3">
       <x:c r="A28" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B28" s="3" t="n">
+      <x:c r="B28" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C28" s="3" t="n">
         <x:v>1826</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:2">
+    <x:row r="29" spans="1:3">
       <x:c r="A29" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B29" s="3" t="n">
+      <x:c r="B29" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C29" s="3" t="n">
         <x:v>1826</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:2">
+    <x:row r="30" spans="1:3">
       <x:c r="A30" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B30" s="3" t="n">
+      <x:c r="B30" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C30" s="3" t="n">
         <x:v>1868</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:2">
+    <x:row r="31" spans="1:3">
       <x:c r="A31" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B31" s="3" t="n">
+      <x:c r="B31" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C31" s="3" t="n">
         <x:v>1868</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:2">
+    <x:row r="32" spans="1:3">
       <x:c r="A32" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B32" s="3" t="n">
+      <x:c r="B32" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C32" s="3" t="n">
         <x:v>1868</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:2">
+    <x:row r="33" spans="1:3">
       <x:c r="A33" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B33" s="3" t="n">
+      <x:c r="B33" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C33" s="3" t="n">
         <x:v>1868</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:2">
+    <x:row r="34" spans="1:3">
       <x:c r="A34" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B34" s="3" t="n">
+      <x:c r="B34" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C34" s="3" t="n">
         <x:v>1882</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:2">
+    <x:row r="35" spans="1:3">
       <x:c r="A35" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B35" s="3" t="n">
+      <x:c r="B35" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C35" s="3" t="n">
         <x:v>1882</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:2">
+    <x:row r="36" spans="1:3">
       <x:c r="A36" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B36" s="3" t="n">
+      <x:c r="B36" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C36" s="3" t="n">
         <x:v>1882</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:2">
+    <x:row r="37" spans="1:3">
       <x:c r="A37" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B37" s="3" t="n">
+      <x:c r="B37" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C37" s="3" t="n">
         <x:v>1882</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:2">
+    <x:row r="38" spans="1:3">
       <x:c r="A38" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B38" s="3" t="n">
+      <x:c r="B38" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C38" s="3" t="n">
         <x:v>1914</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:2">
+    <x:row r="39" spans="1:3">
       <x:c r="A39" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B39" s="3" t="n">
+      <x:c r="B39" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C39" s="3" t="n">
         <x:v>1945</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:2">
+    <x:row r="40" spans="1:3">
       <x:c r="A40" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B40" s="3" t="n">
+      <x:c r="B40" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C40" s="3" t="n">
         <x:v>1941</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:2">
+    <x:row r="41" spans="1:3">
       <x:c r="A41" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B41" s="3" t="n">
+      <x:c r="B41" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C41" s="3" t="n">
         <x:v>1959</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:2">
+    <x:row r="42" spans="1:3">
       <x:c r="A42" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B42" s="3" t="n">
+      <x:c r="B42" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C42" s="3" t="n">
         <x:v>1974</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:2">
+    <x:row r="43" spans="1:3">
       <x:c r="A43" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="B43" s="3" t="n">
+      <x:c r="B43" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C43" s="3" t="n">
         <x:v>1971</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:2">
+    <x:row r="44" spans="1:3">
       <x:c r="A44" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="B44" s="3" t="n">
+      <x:c r="B44" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C44" s="3" t="n">
         <x:v>1981</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:2">
+    <x:row r="45" spans="1:3">
       <x:c r="A45" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="B45" s="3" t="n">
+      <x:c r="B45" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C45" s="3" t="n">
         <x:v>1972</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:2">
+    <x:row r="46" spans="1:3">
       <x:c r="A46" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B46" s="3" t="n">
+      <x:c r="B46" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C46" s="3" t="n">
         <x:v>1979</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:2">
+    <x:row r="47" spans="1:3">
       <x:c r="A47" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="B47" s="3" t="n">
+      <x:c r="B47" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C47" s="3" t="n">
         <x:v>2012</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:2">
+    <x:row r="48" spans="1:3">
       <x:c r="A48" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B48" s="3" t="n">
+      <x:c r="B48" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C48" s="3" t="n">
         <x:v>1986</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:2">
+    <x:row r="49" spans="1:3">
       <x:c r="A49" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="B49" s="3" t="n">
+      <x:c r="B49" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C49" s="3" t="n">
         <x:v>2004</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:2">
+    <x:row r="50" spans="1:3">
       <x:c r="A50" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="B50" s="3" t="n">
+      <x:c r="B50" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C50" s="3" t="n">
         <x:v>1998</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:2">
+    <x:row r="51" spans="1:3">
       <x:c r="A51" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="B51" s="3" t="n">
+      <x:c r="B51" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C51" s="3" t="n">
         <x:v>2033</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:2">
+    <x:row r="52" spans="1:3">
       <x:c r="A52" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B52" s="3" t="n">
+      <x:c r="B52" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C52" s="3" t="n">
         <x:v>2008</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:2">
+    <x:row r="53" spans="1:3">
       <x:c r="A53" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="B53" s="3" t="n">
+      <x:c r="B53" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C53" s="3" t="n">
         <x:v>2018</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:2">
+    <x:row r="54" spans="1:3">
       <x:c r="A54" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="B54" s="3" t="n">
+      <x:c r="B54" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C54" s="3" t="n">
         <x:v>2042</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:2">
+    <x:row r="55" spans="1:3">
       <x:c r="A55" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="B55" s="3" t="n">
+      <x:c r="B55" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C55" s="3" t="n">
         <x:v>2044</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:2">
+    <x:row r="56" spans="1:3">
       <x:c r="A56" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="B56" s="3" t="n">
+      <x:c r="B56" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C56" s="3" t="n">
         <x:v>2018</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:2">
+    <x:row r="57" spans="1:3">
       <x:c r="A57" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="B57" s="3" t="n">
+      <x:c r="B57" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C57" s="3" t="n">
         <x:v>2031</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:2">
+    <x:row r="58" spans="1:3">
       <x:c r="A58" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="B58" s="3" t="n">
+      <x:c r="B58" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C58" s="3" t="n">
         <x:v>2051</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:2">
+    <x:row r="59" spans="1:3">
       <x:c r="A59" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="B59" s="3" t="n">
+      <x:c r="B59" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C59" s="3" t="n">
         <x:v>2054</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:2">
+    <x:row r="60" spans="1:3">
       <x:c r="A60" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="B60" s="3" t="n">
+      <x:c r="B60" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C60" s="3" t="n">
         <x:v>2074</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:2">
+    <x:row r="61" spans="1:3">
       <x:c r="A61" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="B61" s="3" t="n">
+      <x:c r="B61" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C61" s="3" t="n">
         <x:v>2091</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:2">
+    <x:row r="62" spans="1:3">
       <x:c r="A62" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="B62" s="3" t="n">
+      <x:c r="B62" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C62" s="3" t="n">
         <x:v>2110</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:2">
+    <x:row r="63" spans="1:3">
       <x:c r="A63" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="B63" s="3" t="n">
+      <x:c r="B63" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C63" s="3" t="n">
         <x:v>2138</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:2">
+    <x:row r="64" spans="1:3">
       <x:c r="A64" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B64" s="3" t="n">
+      <x:c r="B64" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C64" s="3" t="n">
         <x:v>2121</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:2">
+    <x:row r="65" spans="1:3">
       <x:c r="A65" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="B65" s="3" t="n">
+      <x:c r="B65" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C65" s="3" t="n">
         <x:v>2142</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:2">
+    <x:row r="66" spans="1:3">
       <x:c r="A66" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B66" s="3" t="n">
+      <x:c r="B66" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C66" s="3" t="n">
         <x:v>2165</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:2">
+    <x:row r="67" spans="1:3">
       <x:c r="A67" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="B67" s="3" t="n">
+      <x:c r="B67" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C67" s="3" t="n">
         <x:v>2179</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:2">
+    <x:row r="68" spans="1:3">
       <x:c r="A68" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="B68" s="3" t="n">
+      <x:c r="B68" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C68" s="3" t="n">
         <x:v>2165</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:2">
+    <x:row r="69" spans="1:3">
       <x:c r="A69" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="B69" s="3" t="n">
+      <x:c r="B69" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C69" s="3" t="n">
         <x:v>2175</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:2">
+    <x:row r="70" spans="1:3">
       <x:c r="A70" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="B70" s="3" t="n">
+      <x:c r="B70" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C70" s="3" t="n">
         <x:v>2179</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:2">
+    <x:row r="71" spans="1:3">
       <x:c r="A71" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="B71" s="3" t="n">
+      <x:c r="B71" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C71" s="3" t="n">
         <x:v>2191</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:2">
+    <x:row r="72" spans="1:3">
       <x:c r="A72" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="B72" s="3" t="n">
+      <x:c r="B72" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C72" s="3" t="n">
         <x:v>2199</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:2">
+    <x:row r="73" spans="1:3">
       <x:c r="A73" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="B73" s="3" t="n">
+      <x:c r="B73" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C73" s="3" t="n">
         <x:v>2163</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:2">
+    <x:row r="74" spans="1:3">
       <x:c r="A74" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="B74" s="3" t="n">
+      <x:c r="B74" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C74" s="3" t="n">
         <x:v>2159</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:2">
+    <x:row r="75" spans="1:3">
       <x:c r="A75" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="B75" s="3" t="n">
+      <x:c r="B75" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C75" s="3" t="n">
         <x:v>2172</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:2">
+    <x:row r="76" spans="1:3">
       <x:c r="A76" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="B76" s="3" t="n">
+      <x:c r="B76" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C76" s="3" t="n">
         <x:v>2164</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:2">
+    <x:row r="77" spans="1:3">
       <x:c r="A77" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="B77" s="3" t="n">
+      <x:c r="B77" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C77" s="3" t="n">
         <x:v>2123</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:2">
+    <x:row r="78" spans="1:3">
       <x:c r="A78" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="B78" s="3" t="n">
+      <x:c r="B78" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C78" s="3" t="n">
         <x:v>2132</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:2">
+    <x:row r="79" spans="1:3">
       <x:c r="A79" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="B79" s="3" t="n">
+      <x:c r="B79" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C79" s="3" t="n">
         <x:v>2151</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:2">
+    <x:row r="80" spans="1:3">
       <x:c r="A80" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="B80" s="3" t="n">
+      <x:c r="B80" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C80" s="3" t="n">
         <x:v>2165</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:2">
+    <x:row r="81" spans="1:3">
       <x:c r="A81" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="B81" s="3" t="n">
+      <x:c r="B81" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C81" s="3" t="n">
         <x:v>2120</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:2">
+    <x:row r="82" spans="1:3">
       <x:c r="A82" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="B82" s="3" t="n">
+      <x:c r="B82" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C82" s="3" t="n">
         <x:v>2106</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:2">
+    <x:row r="83" spans="1:3">
       <x:c r="A83" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="B83" s="3" t="n">
+      <x:c r="B83" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C83" s="3" t="n">
         <x:v>2107</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:2">
+    <x:row r="84" spans="1:3">
       <x:c r="A84" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="B84" s="3" t="n">
+      <x:c r="B84" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C84" s="3" t="n">
         <x:v>2169</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:2">
+    <x:row r="85" spans="1:3">
       <x:c r="A85" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="B85" s="3" t="n">
+      <x:c r="B85" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C85" s="3" t="n">
         <x:v>2121</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:2">
+    <x:row r="86" spans="1:3">
       <x:c r="A86" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="B86" s="3" t="n">
+      <x:c r="B86" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C86" s="3" t="n">
         <x:v>2111</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:2">
+    <x:row r="87" spans="1:3">
       <x:c r="A87" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="B87" s="3" t="n">
+      <x:c r="B87" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C87" s="3" t="n">
         <x:v>2123</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:2">
+    <x:row r="88" spans="1:3">
       <x:c r="A88" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="B88" s="3" t="n">
+      <x:c r="B88" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C88" s="3" t="n">
         <x:v>2166</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:2">
+    <x:row r="89" spans="1:3">
       <x:c r="A89" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="B89" s="3" t="n">
+      <x:c r="B89" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C89" s="3" t="n">
         <x:v>2120</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:2">
+    <x:row r="90" spans="1:3">
       <x:c r="A90" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="B90" s="3" t="n">
+      <x:c r="B90" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C90" s="3" t="n">
         <x:v>2104</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:2">
+    <x:row r="91" spans="1:3">
       <x:c r="A91" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="B91" s="3" t="n">
+      <x:c r="B91" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C91" s="3" t="n">
         <x:v>2127</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:2">
+    <x:row r="92" spans="1:3">
       <x:c r="A92" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="B92" s="3" t="n">
+      <x:c r="B92" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C92" s="3" t="n">
         <x:v>2168</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:2">
+    <x:row r="93" spans="1:3">
       <x:c r="A93" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="B93" s="3" t="n">
+      <x:c r="B93" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C93" s="3" t="n">
         <x:v>2125</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:2">
+    <x:row r="94" spans="1:3">
       <x:c r="A94" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="B94" s="3" t="n">
+      <x:c r="B94" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C94" s="3" t="n">
         <x:v>2114</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:2">
+    <x:row r="95" spans="1:3">
       <x:c r="A95" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="B95" s="3" t="n">
+      <x:c r="B95" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C95" s="3" t="n">
         <x:v>2146</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:2">
+    <x:row r="96" spans="1:3">
       <x:c r="A96" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="B96" s="3" t="n">
+      <x:c r="B96" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C96" s="3" t="n">
         <x:v>2190</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:2">
+    <x:row r="97" spans="1:3">
       <x:c r="A97" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="B97" s="3" t="n">
+      <x:c r="B97" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C97" s="3" t="n">
         <x:v>2153</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:2">
+    <x:row r="98" spans="1:3">
       <x:c r="A98" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="B98" s="3" t="n">
+      <x:c r="B98" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C98" s="3" t="n">
         <x:v>2164</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:2">
+    <x:row r="99" spans="1:3">
       <x:c r="A99" s="2" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="B99" s="3" t="n">
+      <x:c r="B99" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C99" s="3" t="n">
         <x:v>2180</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:2">
+    <x:row r="100" spans="1:3">
       <x:c r="A100" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="B100" s="3" t="n">
+      <x:c r="B100" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C100" s="3" t="n">
         <x:v>2220</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:2">
+    <x:row r="101" spans="1:3">
       <x:c r="A101" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="B101" s="3" t="n">
+      <x:c r="B101" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C101" s="3" t="n">
         <x:v>2181</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:2">
+    <x:row r="102" spans="1:3">
       <x:c r="A102" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B102" s="3" t="n">
+      <x:c r="B102" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C102" s="3" t="n">
         <x:v>2206</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:2">
+    <x:row r="103" spans="1:3">
       <x:c r="A103" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="B103" s="3" t="n">
+      <x:c r="B103" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C103" s="3" t="n">
         <x:v>2244</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:2">
+    <x:row r="104" spans="1:3">
       <x:c r="A104" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="B104" s="3" t="n">
+      <x:c r="B104" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C104" s="3" t="n">
         <x:v>2268</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:2">
+    <x:row r="105" spans="1:3">
       <x:c r="A105" s="2" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="B105" s="3" t="n">
+      <x:c r="B105" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C105" s="3" t="n">
         <x:v>2241</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:2">
+    <x:row r="106" spans="1:3">
       <x:c r="A106" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B106" s="3" t="n">
+      <x:c r="B106" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C106" s="3" t="n">
         <x:v>2252</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:2">
+    <x:row r="107" spans="1:3">
       <x:c r="A107" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="B107" s="3" t="n">
+      <x:c r="B107" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C107" s="3" t="n">
         <x:v>2300</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:2">
+    <x:row r="108" spans="1:3">
       <x:c r="A108" s="2" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="B108" s="3" t="n">
+      <x:c r="B108" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C108" s="3" t="n">
         <x:v>2314</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:2">
+    <x:row r="109" spans="1:3">
       <x:c r="A109" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="B109" s="3" t="n">
+      <x:c r="B109" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C109" s="3" t="n">
         <x:v>2282</x:v>
       </x:c>
     </x:row>
-    <x:row r="110" spans="1:2">
+    <x:row r="110" spans="1:3">
       <x:c r="A110" s="2" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="B110" s="3" t="n">
+      <x:c r="B110" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C110" s="3" t="n">
         <x:v>2299</x:v>
       </x:c>
     </x:row>
-    <x:row r="111" spans="1:2">
+    <x:row r="111" spans="1:3">
       <x:c r="A111" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="B111" s="3" t="n">
+      <x:c r="B111" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C111" s="3" t="n">
         <x:v>2341</x:v>
       </x:c>
     </x:row>
-    <x:row r="112" spans="1:2">
+    <x:row r="112" spans="1:3">
       <x:c r="A112" s="2" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="B112" s="3" t="n">
+      <x:c r="B112" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C112" s="3" t="n">
         <x:v>2342</x:v>
       </x:c>
     </x:row>
-    <x:row r="113" spans="1:2">
+    <x:row r="113" spans="1:3">
       <x:c r="A113" s="2" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="B113" s="3" t="n">
+      <x:c r="B113" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C113" s="3" t="n">
         <x:v>2308</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:2">
+    <x:row r="114" spans="1:3">
       <x:c r="A114" s="2" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="B114" s="3" t="n">
+      <x:c r="B114" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C114" s="3" t="n">
         <x:v>2311</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:2">
+    <x:row r="115" spans="1:3">
       <x:c r="A115" s="2" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="B115" s="3" t="n">
+      <x:c r="B115" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C115" s="3" t="n">
         <x:v>2344</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:2">
+    <x:row r="116" spans="1:3">
       <x:c r="A116" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="B116" s="3" t="n">
+      <x:c r="B116" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C116" s="3" t="n">
         <x:v>2348</x:v>
       </x:c>
     </x:row>
-    <x:row r="117" spans="1:2">
+    <x:row r="117" spans="1:3">
       <x:c r="A117" s="2" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="B117" s="3" t="n">
+      <x:c r="B117" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C117" s="3" t="n">
         <x:v>2330</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:2">
+    <x:row r="118" spans="1:3">
       <x:c r="A118" s="2" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="B118" s="3" t="n">
+      <x:c r="B118" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C118" s="3" t="n">
         <x:v>2337</x:v>
       </x:c>
     </x:row>
-    <x:row r="119" spans="1:2">
+    <x:row r="119" spans="1:3">
       <x:c r="A119" s="2" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="B119" s="3" t="n">
+      <x:c r="B119" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C119" s="3" t="n">
         <x:v>2364</x:v>
       </x:c>
     </x:row>
-    <x:row r="120" spans="1:2">
+    <x:row r="120" spans="1:3">
       <x:c r="A120" s="2" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="B120" s="3" t="n">
+      <x:c r="B120" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C120" s="3" t="n">
         <x:v>2365</x:v>
       </x:c>
     </x:row>
-    <x:row r="121" spans="1:2">
+    <x:row r="121" spans="1:3">
       <x:c r="A121" s="2" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="B121" s="3" t="n">
+      <x:c r="B121" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C121" s="3" t="n">
         <x:v>2333</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:2">
+    <x:row r="122" spans="1:3">
       <x:c r="A122" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="B122" s="3" t="n">
+      <x:c r="B122" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C122" s="3" t="n">
         <x:v>2349</x:v>
       </x:c>
     </x:row>
-    <x:row r="123" spans="1:2">
+    <x:row r="123" spans="1:3">
       <x:c r="A123" s="2" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="B123" s="3" t="n">
+      <x:c r="B123" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C123" s="3" t="n">
         <x:v>2373</x:v>
       </x:c>
     </x:row>
-    <x:row r="124" spans="1:2">
+    <x:row r="124" spans="1:3">
       <x:c r="A124" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="B124" s="3" t="n">
+      <x:c r="B124" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C124" s="3" t="n">
         <x:v>2371</x:v>
       </x:c>
     </x:row>
-    <x:row r="125" spans="1:2">
+    <x:row r="125" spans="1:3">
       <x:c r="A125" s="2" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="B125" s="3" t="n">
+      <x:c r="B125" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C125" s="3" t="n">
         <x:v>2353</x:v>
       </x:c>
     </x:row>
-    <x:row r="126" spans="1:2">
+    <x:row r="126" spans="1:3">
       <x:c r="A126" s="2" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="B126" s="3" t="n">
+      <x:c r="B126" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C126" s="3" t="n">
         <x:v>2373</x:v>
       </x:c>
     </x:row>
-    <x:row r="127" spans="1:2">
+    <x:row r="127" spans="1:3">
       <x:c r="A127" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="B127" s="3" t="n">
+      <x:c r="B127" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C127" s="3" t="n">
         <x:v>2398</x:v>
       </x:c>
     </x:row>
-    <x:row r="128" spans="1:2">
+    <x:row r="128" spans="1:3">
       <x:c r="A128" s="2" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="B128" s="3" t="n">
+      <x:c r="B128" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C128" s="3" t="n">
         <x:v>2389</x:v>
       </x:c>
     </x:row>
-    <x:row r="129" spans="1:2">
+    <x:row r="129" spans="1:3">
       <x:c r="A129" s="2" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="B129" s="3" t="n">
+      <x:c r="B129" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C129" s="3" t="n">
         <x:v>2354</x:v>
       </x:c>
     </x:row>
-    <x:row r="130" spans="1:2">
+    <x:row r="130" spans="1:3">
       <x:c r="A130" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B130" s="3" t="n">
+      <x:c r="B130" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C130" s="3" t="n">
         <x:v>2366</x:v>
       </x:c>
     </x:row>
-    <x:row r="131" spans="1:2">
+    <x:row r="131" spans="1:3">
       <x:c r="A131" s="2" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="B131" s="3" t="n">
+      <x:c r="B131" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C131" s="3" t="n">
         <x:v>2386</x:v>
       </x:c>
     </x:row>
-    <x:row r="132" spans="1:2">
+    <x:row r="132" spans="1:3">
       <x:c r="A132" s="2" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="B132" s="3" t="n">
+      <x:c r="B132" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C132" s="3" t="n">
         <x:v>2390</x:v>
       </x:c>
     </x:row>
-    <x:row r="133" spans="1:2">
+    <x:row r="133" spans="1:3">
       <x:c r="A133" s="2" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="B133" s="3" t="n">
+      <x:c r="B133" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C133" s="3" t="n">
         <x:v>2359</x:v>
       </x:c>
     </x:row>
-    <x:row r="134" spans="1:2">
+    <x:row r="134" spans="1:3">
       <x:c r="A134" s="2" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="B134" s="3" t="n">
+      <x:c r="B134" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C134" s="3" t="n">
         <x:v>2362</x:v>
       </x:c>
     </x:row>
-    <x:row r="135" spans="1:2">
+    <x:row r="135" spans="1:3">
       <x:c r="A135" s="2" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="B135" s="3" t="n">
+      <x:c r="B135" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C135" s="3" t="n">
         <x:v>2394</x:v>
       </x:c>
     </x:row>
-    <x:row r="136" spans="1:2">
+    <x:row r="136" spans="1:3">
       <x:c r="A136" s="2" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="B136" s="3" t="n">
+      <x:c r="B136" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C136" s="3" t="n">
         <x:v>2401</x:v>
       </x:c>
     </x:row>
-    <x:row r="137" spans="1:2">
+    <x:row r="137" spans="1:3">
       <x:c r="A137" s="2" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="B137" s="3" t="n">
+      <x:c r="B137" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C137" s="3" t="n">
         <x:v>2371</x:v>
       </x:c>
     </x:row>
-    <x:row r="138" spans="1:2">
+    <x:row r="138" spans="1:3">
       <x:c r="A138" s="2" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="B138" s="3" t="n">
+      <x:c r="B138" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C138" s="3" t="n">
         <x:v>2378</x:v>
       </x:c>
     </x:row>
-    <x:row r="139" spans="1:2">
+    <x:row r="139" spans="1:3">
       <x:c r="A139" s="2" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="B139" s="3" t="n">
+      <x:c r="B139" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C139" s="3" t="n">
         <x:v>2403</x:v>
       </x:c>
     </x:row>
-    <x:row r="140" spans="1:2">
+    <x:row r="140" spans="1:3">
       <x:c r="A140" s="2" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="B140" s="3" t="n">
+      <x:c r="B140" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C140" s="3" t="n">
         <x:v>2421</x:v>
       </x:c>
     </x:row>
-    <x:row r="141" spans="1:2">
+    <x:row r="141" spans="1:3">
       <x:c r="A141" s="2" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="B141" s="3" t="n">
+      <x:c r="B141" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C141" s="3" t="n">
         <x:v>2396</x:v>
       </x:c>
     </x:row>
-    <x:row r="142" spans="1:2">
+    <x:row r="142" spans="1:3">
       <x:c r="A142" s="2" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="B142" s="3" t="n">
+      <x:c r="B142" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C142" s="3" t="n">
         <x:v>2404</x:v>
       </x:c>
     </x:row>
-    <x:row r="143" spans="1:2">
+    <x:row r="143" spans="1:3">
       <x:c r="A143" s="2" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="B143" s="3" t="n">
+      <x:c r="B143" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C143" s="3" t="n">
         <x:v>2447</x:v>
       </x:c>
     </x:row>
-    <x:row r="144" spans="1:2">
+    <x:row r="144" spans="1:3">
       <x:c r="A144" s="2" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="B144" s="3" t="n">
+      <x:c r="B144" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C144" s="3" t="n">
         <x:v>2457</x:v>
       </x:c>
     </x:row>
-    <x:row r="145" spans="1:2">
+    <x:row r="145" spans="1:3">
       <x:c r="A145" s="2" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="B145" s="3" t="n">
+      <x:c r="B145" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C145" s="3" t="n">
         <x:v>2449</x:v>
       </x:c>
     </x:row>
-    <x:row r="146" spans="1:2">
+    <x:row r="146" spans="1:3">
       <x:c r="A146" s="2" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="B146" s="3" t="n">
+      <x:c r="B146" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C146" s="3" t="n">
         <x:v>2462</x:v>
       </x:c>
     </x:row>
-    <x:row r="147" spans="1:2">
+    <x:row r="147" spans="1:3">
       <x:c r="A147" s="2" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="B147" s="3" t="n">
+      <x:c r="B147" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C147" s="3" t="n">
         <x:v>2501</x:v>
       </x:c>
     </x:row>
-    <x:row r="148" spans="1:2">
+    <x:row r="148" spans="1:3">
       <x:c r="A148" s="2" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="B148" s="3" t="n">
+      <x:c r="B148" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C148" s="3" t="n">
         <x:v>2511</x:v>
       </x:c>
     </x:row>
-    <x:row r="149" spans="1:2">
+    <x:row r="149" spans="1:3">
       <x:c r="A149" s="2" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="B149" s="3" t="n">
+      <x:c r="B149" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C149" s="3" t="n">
         <x:v>2529</x:v>
       </x:c>
     </x:row>
-    <x:row r="150" spans="1:2">
+    <x:row r="150" spans="1:3">
       <x:c r="A150" s="2" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="B150" s="3" t="n">
+      <x:c r="B150" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C150" s="3" t="n">
         <x:v>2548</x:v>
       </x:c>
     </x:row>
-    <x:row r="151" spans="1:2">
+    <x:row r="151" spans="1:3">
       <x:c r="A151" s="2" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="B151" s="3" t="n">
+      <x:c r="B151" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C151" s="3" t="n">
         <x:v>2585</x:v>
       </x:c>
     </x:row>
-    <x:row r="152" spans="1:2">
+    <x:row r="152" spans="1:3">
       <x:c r="A152" s="2" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="B152" s="3" t="n">
+      <x:c r="B152" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C152" s="3" t="n">
         <x:v>2595</x:v>
       </x:c>
     </x:row>
-    <x:row r="153" spans="1:2">
+    <x:row r="153" spans="1:3">
       <x:c r="A153" s="2" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="B153" s="3" t="n">
+      <x:c r="B153" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C153" s="3" t="n">
         <x:v>2573</x:v>
       </x:c>
     </x:row>
-    <x:row r="154" spans="1:2">
+    <x:row r="154" spans="1:3">
       <x:c r="A154" s="2" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="B154" s="3" t="n">
+      <x:c r="B154" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C154" s="3" t="n">
         <x:v>2578</x:v>
       </x:c>
     </x:row>
-    <x:row r="155" spans="1:2">
+    <x:row r="155" spans="1:3">
       <x:c r="A155" s="2" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="B155" s="3" t="n">
+      <x:c r="B155" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C155" s="3" t="n">
         <x:v>2605</x:v>
       </x:c>
     </x:row>
-    <x:row r="156" spans="1:2">
+    <x:row r="156" spans="1:3">
       <x:c r="A156" s="2" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="B156" s="3" t="n">
+      <x:c r="B156" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C156" s="3" t="n">
         <x:v>2578</x:v>
       </x:c>
     </x:row>
-    <x:row r="157" spans="1:2">
+    <x:row r="157" spans="1:3">
       <x:c r="A157" s="2" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="B157" s="3" t="n">
+      <x:c r="B157" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C157" s="3" t="n">
         <x:v>2558</x:v>
       </x:c>
     </x:row>
-    <x:row r="158" spans="1:2">
+    <x:row r="158" spans="1:3">
       <x:c r="A158" s="2" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="B158" s="3" t="n">
+      <x:c r="B158" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C158" s="3" t="n">
         <x:v>2576</x:v>
       </x:c>
     </x:row>
-    <x:row r="159" spans="1:2">
+    <x:row r="159" spans="1:3">
       <x:c r="A159" s="2" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="B159" s="3" t="n">
+      <x:c r="B159" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C159" s="3" t="n">
         <x:v>2613</x:v>
       </x:c>
     </x:row>
-    <x:row r="160" spans="1:2">
+    <x:row r="160" spans="1:3">
       <x:c r="A160" s="2" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="B160" s="3" t="n">
+      <x:c r="B160" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C160" s="3" t="n">
         <x:v>2601</x:v>
       </x:c>
     </x:row>
-    <x:row r="161" spans="1:2">
+    <x:row r="161" spans="1:3">
       <x:c r="A161" s="2" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="B161" s="3" t="n">
+      <x:c r="B161" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="C161" s="3" t="n">
         <x:v>2595</x:v>
       </x:c>
     </x:row>
-    <x:row r="162" spans="1:2">
+    <x:row r="162" spans="1:3">
       <x:c r="A162" s="2" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="B162" s="3" t="n">
+      <x:c r="B162" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C162" s="3" t="n">
         <x:v>2595</x:v>
       </x:c>
     </x:row>
-    <x:row r="163" spans="1:2">
+    <x:row r="163" spans="1:3">
       <x:c r="A163" s="2" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="B163" s="3" t="n">
+      <x:c r="B163" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C163" s="3" t="n">
         <x:v>2639</x:v>
       </x:c>
     </x:row>
-    <x:row r="164" spans="1:2">
+    <x:row r="164" spans="1:3">
       <x:c r="A164" s="2" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="B164" s="3" t="n">
+      <x:c r="B164" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C164" s="3" t="n">
         <x:v>2647</x:v>
       </x:c>
     </x:row>
-    <x:row r="165" spans="1:2">
+    <x:row r="165" spans="1:3">
       <x:c r="A165" s="2" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="B165" s="3" t="n">
+      <x:c r="B165" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C165" s="3" t="n">
         <x:v>2641</x:v>
       </x:c>
     </x:row>
-    <x:row r="166" spans="1:2">
+    <x:row r="166" spans="1:3">
       <x:c r="A166" s="2" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="B166" s="3" t="n">
+      <x:c r="B166" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C166" s="3" t="n">
         <x:v>2649</x:v>
       </x:c>
     </x:row>
-    <x:row r="167" spans="1:2">
+    <x:row r="167" spans="1:3">
       <x:c r="A167" s="2" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="B167" s="3" t="n">
+      <x:c r="B167" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C167" s="3" t="n">
         <x:v>2682</x:v>
       </x:c>
     </x:row>
-    <x:row r="168" spans="1:2">
+    <x:row r="168" spans="1:3">
       <x:c r="A168" s="2" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="B168" s="3" t="n">
+      <x:c r="B168" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="C168" s="3" t="n">
         <x:v>2678</x:v>
       </x:c>
     </x:row>
-    <x:row r="169" spans="1:2">
+    <x:row r="169" spans="1:3">
       <x:c r="A169" s="2" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="B169" s="3" t="n">
+      <x:c r="B169" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C169" s="3" t="n">
         <x:v>2677</x:v>
       </x:c>
     </x:row>
-    <x:row r="170" spans="1:2">
+    <x:row r="170" spans="1:3">
       <x:c r="A170" s="2" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="B170" s="3" t="n">
+      <x:c r="B170" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C170" s="3" t="n">
         <x:v>2678</x:v>
       </x:c>
     </x:row>
-    <x:row r="171" spans="1:2">
+    <x:row r="171" spans="1:3">
       <x:c r="A171" s="2" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="B171" s="3" t="n">
+      <x:c r="B171" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C171" s="3" t="n">
         <x:v>2705</x:v>
       </x:c>
     </x:row>
-    <x:row r="172" spans="1:2">
+    <x:row r="172" spans="1:3">
       <x:c r="A172" s="2" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="B172" s="3" t="n">
+      <x:c r="B172" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C172" s="3" t="n">
         <x:v>2723</x:v>
       </x:c>
     </x:row>
-    <x:row r="173" spans="1:2">
+    <x:row r="173" spans="1:3">
       <x:c r="A173" s="2" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="B173" s="3" t="n">
+      <x:c r="B173" s="2" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C173" s="3" t="n">
         <x:v>2709</x:v>
       </x:c>
     </x:row>
-    <x:row r="174" spans="1:2">
+    <x:row r="174" spans="1:3">
       <x:c r="A174" s="2" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="B174" s="3" t="n">
+      <x:c r="B174" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C174" s="3" t="n">
         <x:v>2694</x:v>
       </x:c>
     </x:row>
-    <x:row r="175" spans="1:2">
+    <x:row r="175" spans="1:3">
       <x:c r="A175" s="2" t="s">
         <x:v>173</x:v>
       </x:c>
-      <x:c r="B175" s="3" t="n">
+      <x:c r="B175" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C175" s="3" t="n">
         <x:v>2733</x:v>
       </x:c>
     </x:row>
-    <x:row r="176" spans="1:2">
+    <x:row r="176" spans="1:3">
       <x:c r="A176" s="2" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="B176" s="3" t="n">
+      <x:c r="B176" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C176" s="3" t="n">
         <x:v>2738</x:v>
       </x:c>
     </x:row>
-    <x:row r="177" spans="1:2">
+    <x:row r="177" spans="1:3">
       <x:c r="A177" s="2" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="B177" s="3" t="n">
+      <x:c r="B177" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C177" s="3" t="n">
         <x:v>2727</x:v>
       </x:c>
     </x:row>
-    <x:row r="178" spans="1:2">
+    <x:row r="178" spans="1:3">
       <x:c r="A178" s="2" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="B178" s="3" t="n">
+      <x:c r="B178" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C178" s="3" t="n">
         <x:v>2743</x:v>
       </x:c>
     </x:row>
-    <x:row r="179" spans="1:2">
+    <x:row r="179" spans="1:3">
       <x:c r="A179" s="2" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="B179" s="3" t="n">
+      <x:c r="B179" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C179" s="3" t="n">
         <x:v>2780</x:v>
       </x:c>
     </x:row>
-    <x:row r="180" spans="1:2">
+    <x:row r="180" spans="1:3">
       <x:c r="A180" s="2" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="B180" s="3" t="n">
+      <x:c r="B180" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C180" s="3" t="n">
         <x:v>2775</x:v>
       </x:c>
     </x:row>
-    <x:row r="181" spans="1:2">
+    <x:row r="181" spans="1:3">
       <x:c r="A181" s="2" t="s">
         <x:v>179</x:v>
       </x:c>
-      <x:c r="B181" s="3" t="n">
+      <x:c r="B181" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C181" s="3" t="n">
         <x:v>2760</x:v>
       </x:c>
     </x:row>
-    <x:row r="182" spans="1:2">
+    <x:row r="182" spans="1:3">
       <x:c r="A182" s="2" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="B182" s="3" t="n">
+      <x:c r="B182" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C182" s="3" t="n">
         <x:v>2766</x:v>
       </x:c>
     </x:row>
-    <x:row r="183" spans="1:2">
+    <x:row r="183" spans="1:3">
       <x:c r="A183" s="2" t="s">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="B183" s="3" t="n">
+      <x:c r="B183" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C183" s="3" t="n">
         <x:v>2780</x:v>
       </x:c>
     </x:row>
-    <x:row r="184" spans="1:2">
+    <x:row r="184" spans="1:3">
       <x:c r="A184" s="2" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="B184" s="3" t="n">
+      <x:c r="B184" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C184" s="3" t="n">
         <x:v>2785</x:v>
       </x:c>
     </x:row>
-    <x:row r="185" spans="1:2">
+    <x:row r="185" spans="1:3">
       <x:c r="A185" s="2" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="B185" s="3" t="n">
+      <x:c r="B185" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C185" s="3" t="n">
         <x:v>2745</x:v>
       </x:c>
     </x:row>
-    <x:row r="186" spans="1:2">
+    <x:row r="186" spans="1:3">
       <x:c r="A186" s="2" t="s">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="B186" s="3" t="n">
+      <x:c r="B186" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C186" s="3" t="n">
         <x:v>2742</x:v>
       </x:c>
     </x:row>
-    <x:row r="187" spans="1:2">
+    <x:row r="187" spans="1:3">
       <x:c r="A187" s="2" t="s">
         <x:v>185</x:v>
       </x:c>
-      <x:c r="B187" s="3" t="n">
+      <x:c r="B187" s="2" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C187" s="3" t="n">
         <x:v>2781</x:v>
       </x:c>
     </x:row>
-    <x:row r="188" spans="1:2">
+    <x:row r="188" spans="1:3">
       <x:c r="A188" s="2" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="B188" s="3" t="n">
+      <x:c r="B188" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C188" s="3" t="n">
         <x:v>2772</x:v>
       </x:c>
     </x:row>
-    <x:row r="189" spans="1:2">
+    <x:row r="189" spans="1:3">
       <x:c r="A189" s="2" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="B189" s="3" t="n">
+      <x:c r="B189" s="2" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C189" s="3" t="n">
         <x:v>2758</x:v>
       </x:c>
     </x:row>
-    <x:row r="190" spans="1:2">
+    <x:row r="190" spans="1:3">
       <x:c r="A190" s="2" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="B190" s="3" t="n">
+      <x:c r="B190" s="2" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C190" s="3" t="n">
         <x:v>2770</x:v>
       </x:c>
     </x:row>
-    <x:row r="191" spans="1:2">
+    <x:row r="191" spans="1:3">
       <x:c r="A191" s="2" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="B191" s="3" t="n">
+      <x:c r="B191" s="2" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C191" s="3" t="n">
         <x:v>2806</x:v>
       </x:c>
     </x:row>
-    <x:row r="192" spans="1:2">
+    <x:row r="192" spans="1:3">
       <x:c r="A192" s="2" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="B192" s="3" t="n">
+      <x:c r="B192" s="2" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C192" s="3" t="n">
         <x:v>2827</x:v>
       </x:c>
     </x:row>
-    <x:row r="193" spans="1:2">
+    <x:row r="193" spans="1:3">
       <x:c r="A193" s="2" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="B193" s="3" t="n">
+      <x:c r="B193" s="2" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C193" s="3" t="n">
         <x:v>2807</x:v>
       </x:c>
     </x:row>
-    <x:row r="194" spans="1:2">
+    <x:row r="194" spans="1:3">
       <x:c r="A194" s="2" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="B194" s="3" t="n">
+      <x:c r="B194" s="2" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C194" s="3" t="n">
         <x:v>2800</x:v>
       </x:c>
     </x:row>
-    <x:row r="195" spans="1:2">
+    <x:row r="195" spans="1:3">
       <x:c r="A195" s="2" t="s">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="B195" s="3" t="n">
+      <x:c r="B195" s="2" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C195" s="3" t="n">
         <x:v>2816</x:v>
       </x:c>
     </x:row>
-    <x:row r="196" spans="1:2">
+    <x:row r="196" spans="1:3">
       <x:c r="A196" s="2" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="B196" s="3" t="n">
+      <x:c r="B196" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C196" s="3" t="n">
         <x:v>2864</x:v>
       </x:c>
     </x:row>
-    <x:row r="197" spans="1:2">
+    <x:row r="197" spans="1:3">
       <x:c r="A197" s="2" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="B197" s="3" t="n">
+      <x:c r="B197" s="2" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C197" s="3" t="n">
         <x:v>2840</x:v>
       </x:c>
     </x:row>
-    <x:row r="198" spans="1:2">
+    <x:row r="198" spans="1:3">
       <x:c r="A198" s="2" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="B198" s="3" t="n">
+      <x:c r="B198" s="2" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C198" s="3" t="n">
         <x:v>2831</x:v>
       </x:c>
     </x:row>
-    <x:row r="199" spans="1:2">
+    <x:row r="199" spans="1:3">
       <x:c r="A199" s="2" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="B199" s="3" t="n">
+      <x:c r="B199" s="2" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C199" s="3" t="n">
         <x:v>2828</x:v>
       </x:c>
     </x:row>
-    <x:row r="200" spans="1:2">
+    <x:row r="200" spans="1:3">
       <x:c r="A200" s="2" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="B200" s="3" t="n">
+      <x:c r="B200" s="2" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C200" s="3" t="n">
         <x:v>2859</x:v>
       </x:c>
     </x:row>
-    <x:row r="201" spans="1:2">
+    <x:row r="201" spans="1:3">
       <x:c r="A201" s="2" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="B201" s="3" t="n">
+      <x:c r="B201" s="2" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C201" s="3" t="n">
         <x:v>2843</x:v>
       </x:c>
     </x:row>
-    <x:row r="202" spans="1:2">
+    <x:row r="202" spans="1:3">
       <x:c r="A202" s="2" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="B202" s="3" t="n">
+      <x:c r="B202" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C202" s="3" t="n">
         <x:v>2840</x:v>
       </x:c>
     </x:row>
-    <x:row r="203" spans="1:2">
+    <x:row r="203" spans="1:3">
       <x:c r="A203" s="2" t="s">
         <x:v>201</x:v>
       </x:c>
-      <x:c r="B203" s="3" t="n">
+      <x:c r="B203" s="2" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="C203" s="3" t="n">
         <x:v>2921</x:v>
       </x:c>
     </x:row>
-    <x:row r="204" spans="1:2">
+    <x:row r="204" spans="1:3">
       <x:c r="A204" s="2" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="B204" s="3" t="n">
+      <x:c r="B204" s="2" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="C204" s="3" t="n">
         <x:v>2932</x:v>
       </x:c>
     </x:row>
-    <x:row r="206" spans="1:2">
-      <x:c r="A206" s="4" t="s">
+    <x:row r="205" spans="1:3">
+      <x:c r="A205" s="2" t="s">
         <x:v>203</x:v>
       </x:c>
-    </x:row>
-    <x:row r="207" spans="1:2">
+      <x:c r="B205" s="2" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C205" s="3" t="n">
+        <x:v>2917</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" spans="1:3">
       <x:c r="A207" s="4" t="s">
         <x:v>204</x:v>
       </x:c>
     </x:row>
-    <x:row r="208" spans="1:2">
+    <x:row r="208" spans="1:3">
       <x:c r="A208" s="4" t="s">
         <x:v>205</x:v>
       </x:c>
     </x:row>
-    <x:row r="210" spans="1:2">
-      <x:c r="A210" s="0" t="s">
+    <x:row r="209" spans="1:3">
+      <x:c r="A209" s="4" t="s">
         <x:v>206</x:v>
       </x:c>
     </x:row>
-    <x:row r="211" spans="1:2">
+    <x:row r="211" spans="1:3">
       <x:c r="A211" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
     </x:row>
-    <x:row r="212" spans="1:2">
+    <x:row r="212" spans="1:3">
       <x:c r="A212" s="0" t="s">
         <x:v>208</x:v>
       </x:c>
     </x:row>
-    <x:row r="214" spans="1:2">
-      <x:c r="A214" s="0" t="s">
+    <x:row r="213" spans="1:3">
+      <x:c r="A213" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="215" spans="1:2">
+    <x:row r="215" spans="1:3">
       <x:c r="A215" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
     </x:row>
-    <x:row r="217" spans="1:2">
-      <x:c r="A217" s="0" t="s">
+    <x:row r="216" spans="1:3">
+      <x:c r="A216" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
     </x:row>
-    <x:row r="218" spans="1:2">
+    <x:row r="218" spans="1:3">
       <x:c r="A218" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="219" spans="1:2">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219" spans="1:3">
       <x:c r="A219" s="0" t="s">
-        <x:v>212</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="220" spans="1:2">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220" spans="1:3">
       <x:c r="A220" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
     </x:row>
-    <x:row r="221" spans="1:2">
+    <x:row r="221" spans="1:3">
       <x:c r="A221" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
     </x:row>
-    <x:row r="223" spans="1:2">
-      <x:c r="A223" s="0" t="s">
+    <x:row r="222" spans="1:3">
+      <x:c r="A222" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
     </x:row>
-    <x:row r="224" spans="1:2">
+    <x:row r="224" spans="1:3">
       <x:c r="A224" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
     </x:row>
-    <x:row r="225" spans="1:2">
+    <x:row r="225" spans="1:3">
       <x:c r="A225" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
     </x:row>
-    <x:row r="227" spans="1:2">
-      <x:c r="A227" s="0" t="s">
+    <x:row r="226" spans="1:3">
+      <x:c r="A226" s="0" t="s">
         <x:v>218</x:v>
       </x:c>
     </x:row>
-    <x:row r="228" spans="1:2">
+    <x:row r="228" spans="1:3">
       <x:c r="A228" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
     </x:row>
-    <x:row r="229" spans="1:2">
+    <x:row r="229" spans="1:3">
       <x:c r="A229" s="0" t="s">
         <x:v>220</x:v>
       </x:c>
     </x:row>
-    <x:row r="233" spans="1:2">
-      <x:c r="A233" s="0" t="s">
+    <x:row r="230" spans="1:3">
+      <x:c r="A230" s="0" t="s">
         <x:v>221</x:v>
       </x:c>
     </x:row>
-    <x:row r="235" spans="1:2">
-      <x:c r="A235" s="0" t="s">
+    <x:row r="234" spans="1:3">
+      <x:c r="A234" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
     </x:row>
-    <x:row r="236" spans="1:2">
+    <x:row r="236" spans="1:3">
       <x:c r="A236" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="237" spans="1:2">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="237" spans="1:3">
       <x:c r="A237" s="0" t="s">
-        <x:v>223</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="238" spans="1:2">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="238" spans="1:3">
       <x:c r="A238" s="0" t="s">
         <x:v>224</x:v>
       </x:c>
     </x:row>
-    <x:row r="239" spans="1:2">
+    <x:row r="239" spans="1:3">
       <x:c r="A239" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="240" spans="1:2">
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="240" spans="1:3">
       <x:c r="A240" s="0" t="s">
-        <x:v>225</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="242" spans="1:2">
-      <x:c r="A242" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="241" spans="1:3">
+      <x:c r="A241" s="0" t="s">
         <x:v>226</x:v>
       </x:c>
     </x:row>
-    <x:row r="243" spans="1:2">
+    <x:row r="243" spans="1:3">
       <x:c r="A243" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="244" spans="1:3">
+      <x:c r="A244" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="244" spans="1:2">
-      <x:c r="A244" s="0" t="s">
-        <x:v>227</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="251" spans="1:2">
-      <x:c r="A251" s="0" t="s">
+    <x:row r="245" spans="1:3">
+      <x:c r="A245" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
     </x:row>
-    <x:row r="252" spans="1:2">
+    <x:row r="252" spans="1:3">
       <x:c r="A252" s="0" t="s">
         <x:v>229</x:v>
       </x:c>
     </x:row>
-    <x:row r="254" spans="1:2">
-      <x:c r="A254" s="0" t="s">
+    <x:row r="253" spans="1:3">
+      <x:c r="A253" s="0" t="s">
         <x:v>230</x:v>
       </x:c>
     </x:row>
-    <x:row r="255" spans="1:2">
+    <x:row r="255" spans="1:3">
       <x:c r="A255" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
     </x:row>
+    <x:row r="256" spans="1:3">
+      <x:c r="A256" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="A207:C207"/>
+    <x:mergeCell ref="A208:C208"/>
+    <x:mergeCell ref="A209:C209"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
